--- a/최종발표/CRUD메트릭스.xlsx
+++ b/최종발표/CRUD메트릭스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\데베설\git_corp\My-Cinema\최종발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31650FD2-DAD8-4402-963F-E5C4CF792DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073ACEF9-A2B3-4D2E-824E-66BF8C01EFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF35880F-C2E3-41AF-9943-8008D55ED834}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{BF35880F-C2E3-41AF-9943-8008D55ED834}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -858,24 +858,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FCE492-328D-4B73-9660-E6C5C9C9FD95}">
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="44.59765625" customWidth="1"/>
-    <col min="4" max="13" width="4.19921875" customWidth="1"/>
-    <col min="14" max="14" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="4.19921875" customWidth="1"/>
-    <col min="26" max="26" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.19921875" customWidth="1"/>
-    <col min="29" max="29" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="44.58203125" customWidth="1"/>
+    <col min="4" max="13" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="4.1640625" customWidth="1"/>
+    <col min="26" max="26" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.1640625" customWidth="1"/>
+    <col min="29" max="29" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="123" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.45">
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -955,7 +955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>105</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>106</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>105</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>106</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>78</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>105</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>106</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>66</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>105</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>105</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>106</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>69</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>105</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>105</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>106</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>105</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>106</v>
       </c>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>105</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>106</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>105</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>106</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>79</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>105</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>105</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>105</v>
       </c>
@@ -2022,7 +2022,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>106</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>88</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>106</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2157,7 +2157,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>105</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>105</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>105</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>105</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>106</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>90</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>105</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>106</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>32</v>
       </c>
@@ -2521,7 +2521,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>105</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>105</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>105</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>106</v>
       </c>
@@ -2691,7 +2691,7 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>105</v>
       </c>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>105</v>
       </c>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>105</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>105</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>106</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>105</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>105</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>106</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>105</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>105</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>105</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>105</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>105</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>106</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>87</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>105</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>105</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>106</v>
       </c>
@@ -3551,14 +3551,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="3" max="3" width="30.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -3577,27 +3577,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>102</v>
       </c>
